--- a/Jogos_do_Dia/2023-03-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -816,52 +816,52 @@
         <v>57</v>
       </c>
       <c r="F3">
-        <v>3.67</v>
+        <v>3.62</v>
       </c>
       <c r="G3">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="H3">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3">
+        <v>1.39</v>
+      </c>
+      <c r="L3">
+        <v>2.7</v>
+      </c>
+      <c r="M3">
+        <v>2.16</v>
+      </c>
+      <c r="N3">
+        <v>1.57</v>
+      </c>
+      <c r="O3">
         <v>1.49</v>
       </c>
-      <c r="L3">
-        <v>2.44</v>
-      </c>
-      <c r="M3">
-        <v>2.22</v>
-      </c>
-      <c r="N3">
-        <v>1.59</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -920,52 +920,52 @@
         <v>58</v>
       </c>
       <c r="F4">
-        <v>2.32</v>
+        <v>3.82</v>
       </c>
       <c r="G4">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H4">
-        <v>3.07</v>
+        <v>3.86</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N4">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V4">
         <v>1.58</v>
@@ -1024,13 +1024,13 @@
         <v>59</v>
       </c>
       <c r="F5">
-        <v>1.96</v>
+        <v>2.57</v>
       </c>
       <c r="G5">
-        <v>3.42</v>
+        <v>1.97</v>
       </c>
       <c r="H5">
-        <v>3.96</v>
+        <v>4.73</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1045,10 +1045,10 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="O5">
         <v>1.4</v>
@@ -1128,13 +1128,13 @@
         <v>60</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1232,52 +1232,52 @@
         <v>61</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V7">
         <v>0.92</v>
@@ -1336,52 +1336,52 @@
         <v>62</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V8">
         <v>1.83</v>
@@ -1544,13 +1544,13 @@
         <v>64</v>
       </c>
       <c r="F10">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
         <v>1.03</v>
@@ -1565,10 +1565,10 @@
         <v>3.08</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N10">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1856,13 +1856,13 @@
         <v>67</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>68</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2064,52 +2064,52 @@
         <v>69</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.85</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V15">
         <v>0</v>
